--- a/docs/Examples/Example4b_H2OQuant_MI/H2O_Silicate_areas.xlsx
+++ b/docs/Examples/Example4b_H2OQuant_MI/H2O_Silicate_areas.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
-  <si>
-    <t>Unnamed: 0</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>Olivine filename</t>
   </si>
@@ -25,10 +22,10 @@
     <t>MI filename</t>
   </si>
   <si>
-    <t>H2O_vs_Silicate_Area_Trapezoid</t>
-  </si>
-  <si>
-    <t>H2O_vs_Silicate_Area_Simpson</t>
+    <t>HW:LW_Trapezoid</t>
+  </si>
+  <si>
+    <t>HW:LW_Simpson</t>
   </si>
   <si>
     <t>Water_Trapezoid_Area</t>
@@ -56,6 +53,24 @@
   </si>
   <si>
     <t>Silicate_N_Poly</t>
+  </si>
+  <si>
+    <t>LW_Silicate_Trapezoid_Area</t>
+  </si>
+  <si>
+    <t>LW_Silicate_Simpson_Area</t>
+  </si>
+  <si>
+    <t>HW_Silicate_Trapezoid_Area</t>
+  </si>
+  <si>
+    <t>HW_Silicate_Simpson_Area</t>
+  </si>
+  <si>
+    <t>MW_Silicate_Trapezoid_Area</t>
+  </si>
+  <si>
+    <t>MW_Silicate_Simpson_Area</t>
   </si>
   <si>
     <t>Water_LHS_Back1</t>
@@ -479,13 +494,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:Y10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -543,562 +558,712 @@
       <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>0</v>
+      <c r="B2" t="s">
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" t="s">
-        <v>27</v>
+        <v>32</v>
+      </c>
+      <c r="D2">
+        <v>1.06569154307878</v>
       </c>
       <c r="E2">
-        <v>0.3850332765234509</v>
+        <v>1.062774111100273</v>
       </c>
       <c r="F2">
-        <v>0.3849004720879733</v>
+        <v>211330.7171463947</v>
       </c>
       <c r="G2">
-        <v>211040.0550439209</v>
+        <v>211165.8087804639</v>
       </c>
       <c r="H2">
-        <v>210927.0150506034</v>
+        <v>379864.4962633568</v>
       </c>
       <c r="I2">
-        <v>548108.6127138085</v>
+        <v>379745.0131779506</v>
       </c>
       <c r="J2">
-        <v>548004.0435034686</v>
+        <v>200</v>
       </c>
       <c r="K2">
-        <v>200</v>
+        <v>320</v>
       </c>
       <c r="L2">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="M2">
-        <v>1240</v>
+        <v>1300</v>
       </c>
       <c r="N2">
-        <v>1500</v>
+        <v>5</v>
       </c>
       <c r="O2">
+        <v>198303.8323977507</v>
+      </c>
+      <c r="P2">
+        <v>198693.0304143816</v>
+      </c>
+      <c r="Q2">
+        <v>198303.8323977507</v>
+      </c>
+      <c r="R2">
+        <v>198693.0304143816</v>
+      </c>
+      <c r="S2">
+        <v>2856.492902985347</v>
+      </c>
+      <c r="T2">
+        <v>2889.76626373741</v>
+      </c>
+      <c r="U2">
+        <v>2400</v>
+      </c>
+      <c r="V2">
+        <v>2750</v>
+      </c>
+      <c r="W2">
+        <v>3750</v>
+      </c>
+      <c r="X2">
+        <v>4100</v>
+      </c>
+      <c r="Y2">
         <v>2</v>
       </c>
-      <c r="P2">
-        <v>2600</v>
-      </c>
-      <c r="Q2">
-        <v>2750</v>
-      </c>
-      <c r="R2">
-        <v>3750</v>
-      </c>
-      <c r="S2">
-        <v>4100</v>
-      </c>
-      <c r="T2">
-        <v>2</v>
-      </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>0</v>
+      <c r="B3" t="s">
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s">
-        <v>28</v>
+        <v>33</v>
+      </c>
+      <c r="D3">
+        <v>1.026382914956149</v>
       </c>
       <c r="E3">
-        <v>0.3568834436653087</v>
+        <v>1.027835536277371</v>
       </c>
       <c r="F3">
-        <v>0.356977055183062</v>
+        <v>204905.6234018431</v>
       </c>
       <c r="G3">
-        <v>201651.4051465942</v>
+        <v>204953.0991150639</v>
       </c>
       <c r="H3">
-        <v>201665.1924311558</v>
+        <v>378823.38523728</v>
       </c>
       <c r="I3">
-        <v>565034.3514834112</v>
+        <v>378959.4773958222</v>
       </c>
       <c r="J3">
-        <v>564924.8025975773</v>
+        <v>200</v>
       </c>
       <c r="K3">
-        <v>200</v>
+        <v>320</v>
       </c>
       <c r="L3">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="M3">
-        <v>1240</v>
+        <v>1300</v>
       </c>
       <c r="N3">
-        <v>1500</v>
+        <v>5</v>
       </c>
       <c r="O3">
+        <v>199638.5758336571</v>
+      </c>
+      <c r="P3">
+        <v>199402.6202454197</v>
+      </c>
+      <c r="Q3">
+        <v>199638.5758336571</v>
+      </c>
+      <c r="R3">
+        <v>199402.6202454197</v>
+      </c>
+      <c r="S3">
+        <v>3243.413313614717</v>
+      </c>
+      <c r="T3">
+        <v>3171.252207578507</v>
+      </c>
+      <c r="U3">
+        <v>2400</v>
+      </c>
+      <c r="V3">
+        <v>2750</v>
+      </c>
+      <c r="W3">
+        <v>3750</v>
+      </c>
+      <c r="X3">
+        <v>4100</v>
+      </c>
+      <c r="Y3">
         <v>2</v>
       </c>
-      <c r="P3">
-        <v>2600</v>
-      </c>
-      <c r="Q3">
-        <v>2750</v>
-      </c>
-      <c r="R3">
-        <v>3750</v>
-      </c>
-      <c r="S3">
-        <v>4100</v>
-      </c>
-      <c r="T3">
-        <v>2</v>
-      </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>0</v>
+      <c r="B4" t="s">
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" t="s">
-        <v>29</v>
+        <v>34</v>
+      </c>
+      <c r="D4">
+        <v>1.144681175072113</v>
       </c>
       <c r="E4">
-        <v>0.3815116281967534</v>
+        <v>1.14459846693493</v>
       </c>
       <c r="F4">
-        <v>0.3817486769753023</v>
+        <v>390345.8836038823</v>
       </c>
       <c r="G4">
-        <v>382241.8390954958</v>
+        <v>390493.0153701129</v>
       </c>
       <c r="H4">
-        <v>382297.276755337</v>
+        <v>641775.5879316252</v>
       </c>
       <c r="I4">
-        <v>1001913.993820303</v>
+        <v>641133.9693091438</v>
       </c>
       <c r="J4">
-        <v>1001437.070546993</v>
+        <v>200</v>
       </c>
       <c r="K4">
-        <v>200</v>
+        <v>320</v>
       </c>
       <c r="L4">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="M4">
-        <v>1240</v>
+        <v>1300</v>
       </c>
       <c r="N4">
-        <v>1500</v>
+        <v>5</v>
       </c>
       <c r="O4">
+        <v>341008.3891519324</v>
+      </c>
+      <c r="P4">
+        <v>341161.5746924745</v>
+      </c>
+      <c r="Q4">
+        <v>341008.3891519324</v>
+      </c>
+      <c r="R4">
+        <v>341161.5746924745</v>
+      </c>
+      <c r="S4">
+        <v>8678.840040669731</v>
+      </c>
+      <c r="T4">
+        <v>8710.81382684476</v>
+      </c>
+      <c r="U4">
+        <v>2400</v>
+      </c>
+      <c r="V4">
+        <v>2750</v>
+      </c>
+      <c r="W4">
+        <v>3750</v>
+      </c>
+      <c r="X4">
+        <v>4100</v>
+      </c>
+      <c r="Y4">
         <v>2</v>
       </c>
-      <c r="P4">
-        <v>2600</v>
-      </c>
-      <c r="Q4">
-        <v>2750</v>
-      </c>
-      <c r="R4">
-        <v>3750</v>
-      </c>
-      <c r="S4">
-        <v>4100</v>
-      </c>
-      <c r="T4">
-        <v>2</v>
-      </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>0</v>
+      <c r="B5" t="s">
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>30</v>
+        <v>35</v>
+      </c>
+      <c r="D5">
+        <v>2.093381815004486</v>
       </c>
       <c r="E5">
-        <v>0.6910968049894713</v>
+        <v>2.093516593905702</v>
       </c>
       <c r="F5">
-        <v>0.6911533214773048</v>
+        <v>271652.0087290474</v>
       </c>
       <c r="G5">
-        <v>265989.6295673257</v>
+        <v>271618.7162290461</v>
       </c>
       <c r="H5">
-        <v>265979.0726202463</v>
+        <v>262087.1780600835</v>
       </c>
       <c r="I5">
-        <v>384880.4214503321</v>
+        <v>262072.51928929</v>
       </c>
       <c r="J5">
-        <v>384833.6748953613</v>
+        <v>200</v>
       </c>
       <c r="K5">
-        <v>200</v>
+        <v>320</v>
       </c>
       <c r="L5">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="M5">
-        <v>1240</v>
+        <v>1300</v>
       </c>
       <c r="N5">
-        <v>1500</v>
+        <v>5</v>
       </c>
       <c r="O5">
+        <v>129767.0624546174</v>
+      </c>
+      <c r="P5">
+        <v>129742.8054880183</v>
+      </c>
+      <c r="Q5">
+        <v>129767.0624546174</v>
+      </c>
+      <c r="R5">
+        <v>129742.8054880183</v>
+      </c>
+      <c r="S5">
+        <v>3076.16639769349</v>
+      </c>
+      <c r="T5">
+        <v>3017.302180572362</v>
+      </c>
+      <c r="U5">
+        <v>2400</v>
+      </c>
+      <c r="V5">
+        <v>2750</v>
+      </c>
+      <c r="W5">
+        <v>3750</v>
+      </c>
+      <c r="X5">
+        <v>4100</v>
+      </c>
+      <c r="Y5">
         <v>2</v>
       </c>
-      <c r="P5">
-        <v>2600</v>
-      </c>
-      <c r="Q5">
-        <v>2750</v>
-      </c>
-      <c r="R5">
-        <v>3750</v>
-      </c>
-      <c r="S5">
-        <v>4100</v>
-      </c>
-      <c r="T5">
-        <v>2</v>
-      </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>0</v>
+      <c r="B6" t="s">
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>31</v>
+        <v>36</v>
+      </c>
+      <c r="D6">
+        <v>1.199234652750843</v>
       </c>
       <c r="E6">
-        <v>0.41532021089813</v>
+        <v>1.200204170214846</v>
       </c>
       <c r="F6">
-        <v>0.4156191987070828</v>
+        <v>203547.7422834502</v>
       </c>
       <c r="G6">
-        <v>200670.5534750202</v>
+        <v>203697.5025508507</v>
       </c>
       <c r="H6">
-        <v>200756.5138878193</v>
+        <v>347528.1130072457</v>
       </c>
       <c r="I6">
-        <v>483170.6914553234</v>
+        <v>347401.5452570768</v>
       </c>
       <c r="J6">
-        <v>483029.933439882</v>
+        <v>200</v>
       </c>
       <c r="K6">
-        <v>200</v>
+        <v>320</v>
       </c>
       <c r="L6">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="M6">
-        <v>1240</v>
+        <v>1300</v>
       </c>
       <c r="N6">
-        <v>1500</v>
+        <v>5</v>
       </c>
       <c r="O6">
+        <v>169731.3714347279</v>
+      </c>
+      <c r="P6">
+        <v>169719.0424812366</v>
+      </c>
+      <c r="Q6">
+        <v>169731.3714347279</v>
+      </c>
+      <c r="R6">
+        <v>169719.0424812366</v>
+      </c>
+      <c r="S6">
+        <v>5423.488224580652</v>
+      </c>
+      <c r="T6">
+        <v>5568.87282582406</v>
+      </c>
+      <c r="U6">
+        <v>2400</v>
+      </c>
+      <c r="V6">
+        <v>2750</v>
+      </c>
+      <c r="W6">
+        <v>3750</v>
+      </c>
+      <c r="X6">
+        <v>4100</v>
+      </c>
+      <c r="Y6">
         <v>2</v>
       </c>
-      <c r="P6">
-        <v>2600</v>
-      </c>
-      <c r="Q6">
-        <v>2750</v>
-      </c>
-      <c r="R6">
-        <v>3750</v>
-      </c>
-      <c r="S6">
-        <v>4100</v>
-      </c>
-      <c r="T6">
-        <v>2</v>
-      </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>0</v>
+      <c r="B7" t="s">
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>32</v>
+        <v>37</v>
+      </c>
+      <c r="D7">
+        <v>1.50284251140496</v>
       </c>
       <c r="E7">
-        <v>0.4721193731705627</v>
+        <v>1.50216741240602</v>
       </c>
       <c r="F7">
-        <v>0.4720460944999481</v>
+        <v>452191.2838810261</v>
       </c>
       <c r="G7">
-        <v>440620.9946694992</v>
+        <v>452122.5283720621</v>
       </c>
       <c r="H7">
-        <v>440291.788528177</v>
+        <v>600078.8888897302</v>
       </c>
       <c r="I7">
-        <v>933283.0205853804</v>
+        <v>599704.0599147446</v>
       </c>
       <c r="J7">
-        <v>932730.4974201528</v>
+        <v>200</v>
       </c>
       <c r="K7">
-        <v>200</v>
+        <v>320</v>
       </c>
       <c r="L7">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="M7">
-        <v>1240</v>
+        <v>1300</v>
       </c>
       <c r="N7">
-        <v>1500</v>
+        <v>5</v>
       </c>
       <c r="O7">
+        <v>300890.6658211889</v>
+      </c>
+      <c r="P7">
+        <v>300980.1202170256</v>
+      </c>
+      <c r="Q7">
+        <v>300890.6658211889</v>
+      </c>
+      <c r="R7">
+        <v>300980.1202170256</v>
+      </c>
+      <c r="S7">
+        <v>3891.606261657763</v>
+      </c>
+      <c r="T7">
+        <v>3878.421110784127</v>
+      </c>
+      <c r="U7">
+        <v>2400</v>
+      </c>
+      <c r="V7">
+        <v>2750</v>
+      </c>
+      <c r="W7">
+        <v>3750</v>
+      </c>
+      <c r="X7">
+        <v>4100</v>
+      </c>
+      <c r="Y7">
         <v>2</v>
       </c>
-      <c r="P7">
-        <v>2600</v>
-      </c>
-      <c r="Q7">
-        <v>2750</v>
-      </c>
-      <c r="R7">
-        <v>3750</v>
-      </c>
-      <c r="S7">
-        <v>4100</v>
-      </c>
-      <c r="T7">
-        <v>2</v>
-      </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>0</v>
+      <c r="B8" t="s">
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>33</v>
+        <v>38</v>
+      </c>
+      <c r="D8">
+        <v>0.9391688424074325</v>
       </c>
       <c r="E8">
-        <v>0.3589818922675677</v>
+        <v>0.9385104397293131</v>
       </c>
       <c r="F8">
-        <v>0.3582590630826152</v>
+        <v>350526.676526524</v>
       </c>
       <c r="G8">
-        <v>339970.4983468497</v>
+        <v>350212.0565708808</v>
       </c>
       <c r="H8">
-        <v>339382.9361235211</v>
+        <v>645400.4301861114</v>
       </c>
       <c r="I8">
-        <v>947040.7997444398</v>
+        <v>645991.0374568827</v>
       </c>
       <c r="J8">
-        <v>947311.5158715714</v>
+        <v>200</v>
       </c>
       <c r="K8">
-        <v>200</v>
+        <v>320</v>
       </c>
       <c r="L8">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="M8">
-        <v>1240</v>
+        <v>1300</v>
       </c>
       <c r="N8">
-        <v>1500</v>
+        <v>5</v>
       </c>
       <c r="O8">
+        <v>373230.7341329555</v>
+      </c>
+      <c r="P8">
+        <v>373157.3371436226</v>
+      </c>
+      <c r="Q8">
+        <v>373230.7341329555</v>
+      </c>
+      <c r="R8">
+        <v>373157.3371436226</v>
+      </c>
+      <c r="S8">
+        <v>-1187.882503597567</v>
+      </c>
+      <c r="T8">
+        <v>-1071.84234033911</v>
+      </c>
+      <c r="U8">
+        <v>2400</v>
+      </c>
+      <c r="V8">
+        <v>2750</v>
+      </c>
+      <c r="W8">
+        <v>3750</v>
+      </c>
+      <c r="X8">
+        <v>4100</v>
+      </c>
+      <c r="Y8">
         <v>2</v>
       </c>
-      <c r="P8">
-        <v>2600</v>
-      </c>
-      <c r="Q8">
-        <v>2750</v>
-      </c>
-      <c r="R8">
-        <v>3750</v>
-      </c>
-      <c r="S8">
-        <v>4100</v>
-      </c>
-      <c r="T8">
-        <v>2</v>
-      </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>0</v>
+      <c r="B9" t="s">
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>34</v>
+        <v>39</v>
+      </c>
+      <c r="D9">
+        <v>1.399086518288772</v>
       </c>
       <c r="E9">
-        <v>0.4508709539083944</v>
+        <v>1.400453303369312</v>
       </c>
       <c r="F9">
-        <v>0.4515952401533654</v>
+        <v>3935931.766783863</v>
       </c>
       <c r="G9">
-        <v>3800481.967728905</v>
+        <v>3940016.475411822</v>
       </c>
       <c r="H9">
-        <v>3803849.862536252</v>
+        <v>5770053.565050465</v>
       </c>
       <c r="I9">
-        <v>8429201.160075322</v>
+        <v>5763112.370893906</v>
       </c>
       <c r="J9">
-        <v>8423139.84807376</v>
+        <v>200</v>
       </c>
       <c r="K9">
-        <v>200</v>
+        <v>320</v>
       </c>
       <c r="L9">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="M9">
-        <v>1240</v>
+        <v>1300</v>
       </c>
       <c r="N9">
-        <v>1500</v>
+        <v>5</v>
       </c>
       <c r="O9">
+        <v>2813215.419728235</v>
+      </c>
+      <c r="P9">
+        <v>2813386.54129534</v>
+      </c>
+      <c r="Q9">
+        <v>2813215.419728235</v>
+      </c>
+      <c r="R9">
+        <v>2813386.54129534</v>
+      </c>
+      <c r="S9">
+        <v>61186.66239565588</v>
+      </c>
+      <c r="T9">
+        <v>60713.03630593926</v>
+      </c>
+      <c r="U9">
+        <v>2400</v>
+      </c>
+      <c r="V9">
+        <v>2750</v>
+      </c>
+      <c r="W9">
+        <v>3750</v>
+      </c>
+      <c r="X9">
+        <v>4100</v>
+      </c>
+      <c r="Y9">
         <v>2</v>
       </c>
-      <c r="P9">
-        <v>2600</v>
-      </c>
-      <c r="Q9">
-        <v>2750</v>
-      </c>
-      <c r="R9">
-        <v>3750</v>
-      </c>
-      <c r="S9">
-        <v>4100</v>
-      </c>
-      <c r="T9">
-        <v>2</v>
-      </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>0</v>
+      <c r="B10" t="s">
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>35</v>
+        <v>40</v>
+      </c>
+      <c r="D10">
+        <v>0.1855341846314108</v>
       </c>
       <c r="E10">
-        <v>0.09665181241078021</v>
+        <v>0.1850224365428846</v>
       </c>
       <c r="F10">
-        <v>0.09650898059852001</v>
+        <v>68860.64036704955</v>
       </c>
       <c r="G10">
-        <v>89353.62353033121</v>
+        <v>68760.36863352291</v>
       </c>
       <c r="H10">
-        <v>89074.71843397</v>
+        <v>706096.111383047</v>
       </c>
       <c r="I10">
-        <v>924489.891100738</v>
+        <v>704640.9722163042</v>
       </c>
       <c r="J10">
-        <v>922968.1826660592</v>
+        <v>200</v>
       </c>
       <c r="K10">
-        <v>200</v>
+        <v>320</v>
       </c>
       <c r="L10">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="M10">
-        <v>1240</v>
+        <v>1300</v>
       </c>
       <c r="N10">
-        <v>1500</v>
+        <v>5</v>
       </c>
       <c r="O10">
-        <v>2</v>
+        <v>371147.9935832347</v>
       </c>
       <c r="P10">
-        <v>2600</v>
+        <v>371632.5972044239</v>
       </c>
       <c r="Q10">
+        <v>371147.9935832347</v>
+      </c>
+      <c r="R10">
+        <v>371632.5972044239</v>
+      </c>
+      <c r="S10">
+        <v>-5015.711367443107</v>
+      </c>
+      <c r="T10">
+        <v>-5142.618122088398</v>
+      </c>
+      <c r="U10">
+        <v>2400</v>
+      </c>
+      <c r="V10">
         <v>2750</v>
       </c>
-      <c r="R10">
+      <c r="W10">
         <v>3750</v>
       </c>
-      <c r="S10">
+      <c r="X10">
         <v>4100</v>
       </c>
-      <c r="T10">
+      <c r="Y10">
         <v>2</v>
       </c>
     </row>

--- a/docs/Examples/Example4b_H2OQuant_MI/H2O_Silicate_areas.xlsx
+++ b/docs/Examples/Example4b_H2OQuant_MI/H2O_Silicate_areas.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+  <si>
+    <t>Unnamed: 0</t>
+  </si>
   <si>
     <t>Olivine filename</t>
   </si>
@@ -22,39 +25,60 @@
     <t>MI filename</t>
   </si>
   <si>
+    <t>H2O_vs_Silicate_Area_Trapezoid</t>
+  </si>
+  <si>
+    <t>H2O_vs_Silicate_Area_Simpson</t>
+  </si>
+  <si>
+    <t>Water_Trapezoid_Area</t>
+  </si>
+  <si>
+    <t>Water_Simpson_Area</t>
+  </si>
+  <si>
+    <t>Silicate_Trapezoid_Area</t>
+  </si>
+  <si>
+    <t>Silicate_Simpson_Area</t>
+  </si>
+  <si>
+    <t>Silicate_LHS_Back1</t>
+  </si>
+  <si>
+    <t>Silicate_LHS_Back2</t>
+  </si>
+  <si>
+    <t>Silicate_RHS_Back1</t>
+  </si>
+  <si>
+    <t>Silicate_RHS_Back2</t>
+  </si>
+  <si>
+    <t>Silicate_N_Poly</t>
+  </si>
+  <si>
+    <t>Water_LHS_Back1</t>
+  </si>
+  <si>
+    <t>Water_LHS_Back2</t>
+  </si>
+  <si>
+    <t>Water_RHS_Back1</t>
+  </si>
+  <si>
+    <t>Water_RHS_Back2</t>
+  </si>
+  <si>
+    <t>Water_N_Poly</t>
+  </si>
+  <si>
     <t>HW:LW_Trapezoid</t>
   </si>
   <si>
     <t>HW:LW_Simpson</t>
   </si>
   <si>
-    <t>Water_Trapezoid_Area</t>
-  </si>
-  <si>
-    <t>Water_Simpson_Area</t>
-  </si>
-  <si>
-    <t>Silicate_Trapezoid_Area</t>
-  </si>
-  <si>
-    <t>Silicate_Simpson_Area</t>
-  </si>
-  <si>
-    <t>Silicate_LHS_Back1</t>
-  </si>
-  <si>
-    <t>Silicate_LHS_Back2</t>
-  </si>
-  <si>
-    <t>Silicate_RHS_Back1</t>
-  </si>
-  <si>
-    <t>Silicate_RHS_Back2</t>
-  </si>
-  <si>
-    <t>Silicate_N_Poly</t>
-  </si>
-  <si>
     <t>LW_Silicate_Trapezoid_Area</t>
   </si>
   <si>
@@ -71,21 +95,6 @@
   </si>
   <si>
     <t>MW_Silicate_Simpson_Area</t>
-  </si>
-  <si>
-    <t>Water_LHS_Back1</t>
-  </si>
-  <si>
-    <t>Water_LHS_Back2</t>
-  </si>
-  <si>
-    <t>Water_RHS_Back1</t>
-  </si>
-  <si>
-    <t>Water_RHS_Back2</t>
-  </si>
-  <si>
-    <t>Water_N_Poly</t>
   </si>
   <si>
     <t>03 CC14_MI2_Ol_96mw.txt</t>
@@ -494,13 +503,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y10"/>
+  <dimension ref="A1:AB10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:28">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -573,697 +582,589 @@
       <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:28">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>24</v>
+      <c r="B2">
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2">
-        <v>1.06569154307878</v>
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
       </c>
       <c r="E2">
-        <v>1.062774111100273</v>
+        <v>0.3850332765234509</v>
       </c>
       <c r="F2">
-        <v>211330.7171463947</v>
+        <v>0.3849004720879733</v>
       </c>
       <c r="G2">
-        <v>211165.8087804639</v>
+        <v>211040.0550439209</v>
       </c>
       <c r="H2">
-        <v>379864.4962633568</v>
+        <v>210927.0150506034</v>
       </c>
       <c r="I2">
-        <v>379745.0131779506</v>
+        <v>548108.6127138085</v>
       </c>
       <c r="J2">
+        <v>548004.0435034686</v>
+      </c>
+      <c r="K2">
         <v>200</v>
       </c>
-      <c r="K2">
-        <v>320</v>
-      </c>
       <c r="L2">
-        <v>1200</v>
+        <v>300</v>
       </c>
       <c r="M2">
-        <v>1300</v>
+        <v>1240</v>
       </c>
       <c r="N2">
-        <v>5</v>
+        <v>1500</v>
       </c>
       <c r="O2">
-        <v>198303.8323977507</v>
+        <v>2</v>
       </c>
       <c r="P2">
-        <v>198693.0304143816</v>
+        <v>2600</v>
       </c>
       <c r="Q2">
-        <v>198303.8323977507</v>
+        <v>2750</v>
       </c>
       <c r="R2">
-        <v>198693.0304143816</v>
+        <v>3750</v>
       </c>
       <c r="S2">
-        <v>2856.492902985347</v>
+        <v>4100</v>
       </c>
       <c r="T2">
-        <v>2889.76626373741</v>
-      </c>
-      <c r="U2">
-        <v>2400</v>
-      </c>
-      <c r="V2">
-        <v>2750</v>
-      </c>
-      <c r="W2">
-        <v>3750</v>
-      </c>
-      <c r="X2">
-        <v>4100</v>
-      </c>
-      <c r="Y2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:28">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>25</v>
+      <c r="B3">
+        <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3">
-        <v>1.026382914956149</v>
-      </c>
-      <c r="E3">
-        <v>1.027835536277371</v>
-      </c>
-      <c r="F3">
-        <v>204905.6234018431</v>
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>36</v>
       </c>
       <c r="G3">
-        <v>204953.0991150639</v>
+        <v>159916.6076406068</v>
       </c>
       <c r="H3">
-        <v>378823.38523728</v>
+        <v>159914.6438366791</v>
       </c>
       <c r="I3">
-        <v>378959.4773958222</v>
+        <v>352889.6808317122</v>
       </c>
       <c r="J3">
+        <v>352995.5588731469</v>
+      </c>
+      <c r="K3">
+        <v>190</v>
+      </c>
+      <c r="L3">
+        <v>210</v>
+      </c>
+      <c r="M3">
+        <v>1250</v>
+      </c>
+      <c r="N3">
+        <v>1260</v>
+      </c>
+      <c r="O3">
+        <v>3</v>
+      </c>
+      <c r="P3">
+        <v>2750</v>
+      </c>
+      <c r="Q3">
+        <v>3100</v>
+      </c>
+      <c r="R3">
+        <v>3750</v>
+      </c>
+      <c r="S3">
+        <v>4100</v>
+      </c>
+      <c r="T3">
+        <v>3</v>
+      </c>
+      <c r="U3">
+        <v>0.7347308909488324</v>
+      </c>
+      <c r="V3">
+        <v>0.7347195820386444</v>
+      </c>
+      <c r="W3">
+        <v>217653.3062793785</v>
+      </c>
+      <c r="X3">
+        <v>217653.9835687515</v>
+      </c>
+      <c r="Y3">
+        <v>217653.3062793785</v>
+      </c>
+      <c r="Z3">
+        <v>217653.9835687515</v>
+      </c>
+      <c r="AA3">
+        <v>-198.9987557319922</v>
+      </c>
+      <c r="AB3">
+        <v>-214.6089631108904</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4">
+        <v>0.3815116281967534</v>
+      </c>
+      <c r="F4">
+        <v>0.3817486769753023</v>
+      </c>
+      <c r="G4">
+        <v>382241.8390954958</v>
+      </c>
+      <c r="H4">
+        <v>382297.276755337</v>
+      </c>
+      <c r="I4">
+        <v>1001913.993820303</v>
+      </c>
+      <c r="J4">
+        <v>1001437.070546993</v>
+      </c>
+      <c r="K4">
         <v>200</v>
       </c>
-      <c r="K3">
-        <v>320</v>
-      </c>
-      <c r="L3">
-        <v>1200</v>
-      </c>
-      <c r="M3">
-        <v>1300</v>
-      </c>
-      <c r="N3">
-        <v>5</v>
-      </c>
-      <c r="O3">
-        <v>199638.5758336571</v>
-      </c>
-      <c r="P3">
-        <v>199402.6202454197</v>
-      </c>
-      <c r="Q3">
-        <v>199638.5758336571</v>
-      </c>
-      <c r="R3">
-        <v>199402.6202454197</v>
-      </c>
-      <c r="S3">
-        <v>3243.413313614717</v>
-      </c>
-      <c r="T3">
-        <v>3171.252207578507</v>
-      </c>
-      <c r="U3">
-        <v>2400</v>
-      </c>
-      <c r="V3">
+      <c r="L4">
+        <v>300</v>
+      </c>
+      <c r="M4">
+        <v>1240</v>
+      </c>
+      <c r="N4">
+        <v>1500</v>
+      </c>
+      <c r="O4">
+        <v>2</v>
+      </c>
+      <c r="P4">
+        <v>2600</v>
+      </c>
+      <c r="Q4">
         <v>2750</v>
       </c>
-      <c r="W3">
+      <c r="R4">
         <v>3750</v>
       </c>
-      <c r="X3">
+      <c r="S4">
         <v>4100</v>
       </c>
-      <c r="Y3">
+      <c r="T4">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4">
-        <v>1.144681175072113</v>
-      </c>
-      <c r="E4">
-        <v>1.14459846693493</v>
-      </c>
-      <c r="F4">
-        <v>390345.8836038823</v>
-      </c>
-      <c r="G4">
-        <v>390493.0153701129</v>
-      </c>
-      <c r="H4">
-        <v>641775.5879316252</v>
-      </c>
-      <c r="I4">
-        <v>641133.9693091438</v>
-      </c>
-      <c r="J4">
-        <v>200</v>
-      </c>
-      <c r="K4">
-        <v>320</v>
-      </c>
-      <c r="L4">
-        <v>1200</v>
-      </c>
-      <c r="M4">
-        <v>1300</v>
-      </c>
-      <c r="N4">
-        <v>5</v>
-      </c>
-      <c r="O4">
-        <v>341008.3891519324</v>
-      </c>
-      <c r="P4">
-        <v>341161.5746924745</v>
-      </c>
-      <c r="Q4">
-        <v>341008.3891519324</v>
-      </c>
-      <c r="R4">
-        <v>341161.5746924745</v>
-      </c>
-      <c r="S4">
-        <v>8678.840040669731</v>
-      </c>
-      <c r="T4">
-        <v>8710.81382684476</v>
-      </c>
-      <c r="U4">
-        <v>2400</v>
-      </c>
-      <c r="V4">
-        <v>2750</v>
-      </c>
-      <c r="W4">
-        <v>3750</v>
-      </c>
-      <c r="X4">
-        <v>4100</v>
-      </c>
-      <c r="Y4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:28">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>27</v>
+      <c r="B5">
+        <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5">
-        <v>2.093381815004486</v>
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>38</v>
       </c>
       <c r="E5">
-        <v>2.093516593905702</v>
+        <v>0.6910968049894713</v>
       </c>
       <c r="F5">
-        <v>271652.0087290474</v>
+        <v>0.6911533214773048</v>
       </c>
       <c r="G5">
-        <v>271618.7162290461</v>
+        <v>265989.6295673257</v>
       </c>
       <c r="H5">
-        <v>262087.1780600835</v>
+        <v>265979.0726202463</v>
       </c>
       <c r="I5">
-        <v>262072.51928929</v>
+        <v>384880.4214503321</v>
       </c>
       <c r="J5">
+        <v>384833.6748953613</v>
+      </c>
+      <c r="K5">
         <v>200</v>
       </c>
-      <c r="K5">
-        <v>320</v>
-      </c>
       <c r="L5">
-        <v>1200</v>
+        <v>300</v>
       </c>
       <c r="M5">
-        <v>1300</v>
+        <v>1240</v>
       </c>
       <c r="N5">
-        <v>5</v>
+        <v>1500</v>
       </c>
       <c r="O5">
-        <v>129767.0624546174</v>
+        <v>2</v>
       </c>
       <c r="P5">
-        <v>129742.8054880183</v>
+        <v>2600</v>
       </c>
       <c r="Q5">
-        <v>129767.0624546174</v>
+        <v>2750</v>
       </c>
       <c r="R5">
-        <v>129742.8054880183</v>
+        <v>3750</v>
       </c>
       <c r="S5">
-        <v>3076.16639769349</v>
+        <v>4100</v>
       </c>
       <c r="T5">
-        <v>3017.302180572362</v>
-      </c>
-      <c r="U5">
-        <v>2400</v>
-      </c>
-      <c r="V5">
-        <v>2750</v>
-      </c>
-      <c r="W5">
-        <v>3750</v>
-      </c>
-      <c r="X5">
-        <v>4100</v>
-      </c>
-      <c r="Y5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:28">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>27</v>
+      <c r="B6">
+        <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6">
-        <v>1.199234652750843</v>
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>39</v>
       </c>
       <c r="E6">
-        <v>1.200204170214846</v>
+        <v>0.41532021089813</v>
       </c>
       <c r="F6">
-        <v>203547.7422834502</v>
+        <v>0.4156191987070828</v>
       </c>
       <c r="G6">
-        <v>203697.5025508507</v>
+        <v>200670.5534750202</v>
       </c>
       <c r="H6">
-        <v>347528.1130072457</v>
+        <v>200756.5138878193</v>
       </c>
       <c r="I6">
-        <v>347401.5452570768</v>
+        <v>483170.6914553234</v>
       </c>
       <c r="J6">
+        <v>483029.933439882</v>
+      </c>
+      <c r="K6">
         <v>200</v>
       </c>
-      <c r="K6">
-        <v>320</v>
-      </c>
       <c r="L6">
-        <v>1200</v>
+        <v>300</v>
       </c>
       <c r="M6">
-        <v>1300</v>
+        <v>1240</v>
       </c>
       <c r="N6">
-        <v>5</v>
+        <v>1500</v>
       </c>
       <c r="O6">
-        <v>169731.3714347279</v>
+        <v>2</v>
       </c>
       <c r="P6">
-        <v>169719.0424812366</v>
+        <v>2600</v>
       </c>
       <c r="Q6">
-        <v>169731.3714347279</v>
+        <v>2750</v>
       </c>
       <c r="R6">
-        <v>169719.0424812366</v>
+        <v>3750</v>
       </c>
       <c r="S6">
-        <v>5423.488224580652</v>
+        <v>4100</v>
       </c>
       <c r="T6">
-        <v>5568.87282582406</v>
-      </c>
-      <c r="U6">
-        <v>2400</v>
-      </c>
-      <c r="V6">
-        <v>2750</v>
-      </c>
-      <c r="W6">
-        <v>3750</v>
-      </c>
-      <c r="X6">
-        <v>4100</v>
-      </c>
-      <c r="Y6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:28">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>28</v>
+      <c r="B7">
+        <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7">
-        <v>1.50284251140496</v>
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>40</v>
       </c>
       <c r="E7">
-        <v>1.50216741240602</v>
+        <v>0.4721193731705627</v>
       </c>
       <c r="F7">
-        <v>452191.2838810261</v>
+        <v>0.4720460944999481</v>
       </c>
       <c r="G7">
-        <v>452122.5283720621</v>
+        <v>440620.9946694992</v>
       </c>
       <c r="H7">
-        <v>600078.8888897302</v>
+        <v>440291.788528177</v>
       </c>
       <c r="I7">
-        <v>599704.0599147446</v>
+        <v>933283.0205853804</v>
       </c>
       <c r="J7">
+        <v>932730.4974201528</v>
+      </c>
+      <c r="K7">
         <v>200</v>
       </c>
-      <c r="K7">
-        <v>320</v>
-      </c>
       <c r="L7">
-        <v>1200</v>
+        <v>300</v>
       </c>
       <c r="M7">
-        <v>1300</v>
+        <v>1240</v>
       </c>
       <c r="N7">
-        <v>5</v>
+        <v>1500</v>
       </c>
       <c r="O7">
-        <v>300890.6658211889</v>
+        <v>2</v>
       </c>
       <c r="P7">
-        <v>300980.1202170256</v>
+        <v>2600</v>
       </c>
       <c r="Q7">
-        <v>300890.6658211889</v>
+        <v>2750</v>
       </c>
       <c r="R7">
-        <v>300980.1202170256</v>
+        <v>3750</v>
       </c>
       <c r="S7">
-        <v>3891.606261657763</v>
+        <v>4100</v>
       </c>
       <c r="T7">
-        <v>3878.421110784127</v>
-      </c>
-      <c r="U7">
-        <v>2400</v>
-      </c>
-      <c r="V7">
-        <v>2750</v>
-      </c>
-      <c r="W7">
-        <v>3750</v>
-      </c>
-      <c r="X7">
-        <v>4100</v>
-      </c>
-      <c r="Y7">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:28">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>29</v>
+      <c r="B8">
+        <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8">
-        <v>0.9391688424074325</v>
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>41</v>
       </c>
       <c r="E8">
-        <v>0.9385104397293131</v>
+        <v>0.3589818922675677</v>
       </c>
       <c r="F8">
-        <v>350526.676526524</v>
+        <v>0.3582590630826152</v>
       </c>
       <c r="G8">
-        <v>350212.0565708808</v>
+        <v>339970.4983468497</v>
       </c>
       <c r="H8">
-        <v>645400.4301861114</v>
+        <v>339382.9361235211</v>
       </c>
       <c r="I8">
-        <v>645991.0374568827</v>
+        <v>947040.7997444398</v>
       </c>
       <c r="J8">
+        <v>947311.5158715714</v>
+      </c>
+      <c r="K8">
         <v>200</v>
       </c>
-      <c r="K8">
-        <v>320</v>
-      </c>
       <c r="L8">
-        <v>1200</v>
+        <v>300</v>
       </c>
       <c r="M8">
-        <v>1300</v>
+        <v>1240</v>
       </c>
       <c r="N8">
-        <v>5</v>
+        <v>1500</v>
       </c>
       <c r="O8">
-        <v>373230.7341329555</v>
+        <v>2</v>
       </c>
       <c r="P8">
-        <v>373157.3371436226</v>
+        <v>2600</v>
       </c>
       <c r="Q8">
-        <v>373230.7341329555</v>
+        <v>2750</v>
       </c>
       <c r="R8">
-        <v>373157.3371436226</v>
+        <v>3750</v>
       </c>
       <c r="S8">
-        <v>-1187.882503597567</v>
+        <v>4100</v>
       </c>
       <c r="T8">
-        <v>-1071.84234033911</v>
-      </c>
-      <c r="U8">
-        <v>2400</v>
-      </c>
-      <c r="V8">
-        <v>2750</v>
-      </c>
-      <c r="W8">
-        <v>3750</v>
-      </c>
-      <c r="X8">
-        <v>4100</v>
-      </c>
-      <c r="Y8">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:28">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>30</v>
+      <c r="B9">
+        <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9">
-        <v>1.399086518288772</v>
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>42</v>
       </c>
       <c r="E9">
-        <v>1.400453303369312</v>
+        <v>0.4508709539083944</v>
       </c>
       <c r="F9">
-        <v>3935931.766783863</v>
+        <v>0.4515952401533654</v>
       </c>
       <c r="G9">
-        <v>3940016.475411822</v>
+        <v>3800481.967728905</v>
       </c>
       <c r="H9">
-        <v>5770053.565050465</v>
+        <v>3803849.862536252</v>
       </c>
       <c r="I9">
-        <v>5763112.370893906</v>
+        <v>8429201.160075322</v>
       </c>
       <c r="J9">
+        <v>8423139.84807376</v>
+      </c>
+      <c r="K9">
         <v>200</v>
       </c>
-      <c r="K9">
-        <v>320</v>
-      </c>
       <c r="L9">
-        <v>1200</v>
+        <v>300</v>
       </c>
       <c r="M9">
-        <v>1300</v>
+        <v>1240</v>
       </c>
       <c r="N9">
-        <v>5</v>
+        <v>1500</v>
       </c>
       <c r="O9">
-        <v>2813215.419728235</v>
+        <v>2</v>
       </c>
       <c r="P9">
-        <v>2813386.54129534</v>
+        <v>2600</v>
       </c>
       <c r="Q9">
-        <v>2813215.419728235</v>
+        <v>2750</v>
       </c>
       <c r="R9">
-        <v>2813386.54129534</v>
+        <v>3750</v>
       </c>
       <c r="S9">
-        <v>61186.66239565588</v>
+        <v>4100</v>
       </c>
       <c r="T9">
-        <v>60713.03630593926</v>
-      </c>
-      <c r="U9">
-        <v>2400</v>
-      </c>
-      <c r="V9">
-        <v>2750</v>
-      </c>
-      <c r="W9">
-        <v>3750</v>
-      </c>
-      <c r="X9">
-        <v>4100</v>
-      </c>
-      <c r="Y9">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:28">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
-        <v>31</v>
+      <c r="B10">
+        <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10">
-        <v>0.1855341846314108</v>
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
+        <v>43</v>
       </c>
       <c r="E10">
-        <v>0.1850224365428846</v>
+        <v>0.09665181241078021</v>
       </c>
       <c r="F10">
-        <v>68860.64036704955</v>
+        <v>0.09650898059852001</v>
       </c>
       <c r="G10">
-        <v>68760.36863352291</v>
+        <v>89353.62353033121</v>
       </c>
       <c r="H10">
-        <v>706096.111383047</v>
+        <v>89074.71843397</v>
       </c>
       <c r="I10">
-        <v>704640.9722163042</v>
+        <v>924489.891100738</v>
       </c>
       <c r="J10">
+        <v>922968.1826660592</v>
+      </c>
+      <c r="K10">
         <v>200</v>
       </c>
-      <c r="K10">
-        <v>320</v>
-      </c>
       <c r="L10">
-        <v>1200</v>
+        <v>300</v>
       </c>
       <c r="M10">
-        <v>1300</v>
+        <v>1240</v>
       </c>
       <c r="N10">
-        <v>5</v>
+        <v>1500</v>
       </c>
       <c r="O10">
-        <v>371147.9935832347</v>
+        <v>2</v>
       </c>
       <c r="P10">
-        <v>371632.5972044239</v>
+        <v>2600</v>
       </c>
       <c r="Q10">
-        <v>371147.9935832347</v>
+        <v>2750</v>
       </c>
       <c r="R10">
-        <v>371632.5972044239</v>
+        <v>3750</v>
       </c>
       <c r="S10">
-        <v>-5015.711367443107</v>
+        <v>4100</v>
       </c>
       <c r="T10">
-        <v>-5142.618122088398</v>
-      </c>
-      <c r="U10">
-        <v>2400</v>
-      </c>
-      <c r="V10">
-        <v>2750</v>
-      </c>
-      <c r="W10">
-        <v>3750</v>
-      </c>
-      <c r="X10">
-        <v>4100</v>
-      </c>
-      <c r="Y10">
         <v>2</v>
       </c>
     </row>

--- a/docs/Examples/Example4b_H2OQuant_MI/H2O_Silicate_areas.xlsx
+++ b/docs/Examples/Example4b_H2OQuant_MI/H2O_Silicate_areas.xlsx
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Olivine filename</t>
+          <t>Host filename</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -575,22 +575,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1.065691543078743</v>
+        <v>1.065691543078758</v>
       </c>
       <c r="E2" t="n">
-        <v>1.062774111100236</v>
+        <v>1.062774111100251</v>
       </c>
       <c r="F2" t="n">
-        <v>211330.7171463954</v>
+        <v>211330.7171463963</v>
       </c>
       <c r="G2" t="n">
-        <v>211165.8087804646</v>
+        <v>211165.8087804655</v>
       </c>
       <c r="H2" t="n">
-        <v>379864.4962633771</v>
+        <v>379864.4962633868</v>
       </c>
       <c r="I2" t="n">
-        <v>379745.0131779709</v>
+        <v>379745.0131779807</v>
       </c>
       <c r="J2" t="n">
         <v>200</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="O2" t="n">
-        <v>198303.8323977582</v>
+        <v>198303.8323977563</v>
       </c>
       <c r="P2" t="n">
-        <v>198693.0304143891</v>
+        <v>198693.0304143872</v>
       </c>
       <c r="Q2" t="n">
-        <v>198303.8323977582</v>
+        <v>198303.8323977563</v>
       </c>
       <c r="R2" t="n">
-        <v>198693.0304143891</v>
+        <v>198693.0304143872</v>
       </c>
       <c r="S2" t="n">
-        <v>2856.492902987955</v>
+        <v>2856.492902988196</v>
       </c>
       <c r="T2" t="n">
-        <v>2889.766263740021</v>
+        <v>2889.766263740253</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1.026382914956208</v>
+        <v>1.026382914956093</v>
       </c>
       <c r="E3" t="n">
-        <v>1.027835536277431</v>
+        <v>1.027835536277315</v>
       </c>
       <c r="F3" t="n">
-        <v>204905.6234018436</v>
+        <v>204905.6234018446</v>
       </c>
       <c r="G3" t="n">
-        <v>204953.0991150644</v>
+        <v>204953.0991150654</v>
       </c>
       <c r="H3" t="n">
-        <v>378823.3852372009</v>
+        <v>378823.385237303</v>
       </c>
       <c r="I3" t="n">
-        <v>378959.477395743</v>
+        <v>378959.4773958451</v>
       </c>
       <c r="J3" t="n">
         <v>200</v>
@@ -694,22 +694,22 @@
         <v>5</v>
       </c>
       <c r="O3" t="n">
-        <v>199638.5758336459</v>
+        <v>199638.5758336693</v>
       </c>
       <c r="P3" t="n">
-        <v>199402.6202454086</v>
+        <v>199402.6202454319</v>
       </c>
       <c r="Q3" t="n">
-        <v>199638.5758336459</v>
+        <v>199638.5758336693</v>
       </c>
       <c r="R3" t="n">
-        <v>199402.6202454086</v>
+        <v>199402.6202454319</v>
       </c>
       <c r="S3" t="n">
-        <v>3243.413313606854</v>
+        <v>3243.413313619381</v>
       </c>
       <c r="T3" t="n">
-        <v>3171.252207570673</v>
+        <v>3171.252207583208</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1.144681175072154</v>
+        <v>1.144681175072166</v>
       </c>
       <c r="E4" t="n">
-        <v>1.144598466934971</v>
+        <v>1.144598466934983</v>
       </c>
       <c r="F4" t="n">
-        <v>390345.8836038823</v>
+        <v>390345.8836038833</v>
       </c>
       <c r="G4" t="n">
-        <v>390493.015370113</v>
+        <v>390493.0153701139</v>
       </c>
       <c r="H4" t="n">
-        <v>641775.5879315966</v>
+        <v>641775.587931565</v>
       </c>
       <c r="I4" t="n">
-        <v>641133.9693091152</v>
+        <v>641133.9693090838</v>
       </c>
       <c r="J4" t="n">
         <v>200</v>
@@ -780,22 +780,22 @@
         <v>5</v>
       </c>
       <c r="O4" t="n">
-        <v>341008.3891519202</v>
+        <v>341008.3891519174</v>
       </c>
       <c r="P4" t="n">
-        <v>341161.5746924622</v>
+        <v>341161.5746924594</v>
       </c>
       <c r="Q4" t="n">
-        <v>341008.3891519202</v>
+        <v>341008.3891519174</v>
       </c>
       <c r="R4" t="n">
-        <v>341161.5746924622</v>
+        <v>341161.5746924594</v>
       </c>
       <c r="S4" t="n">
-        <v>8678.84004066214</v>
+        <v>8678.840040662884</v>
       </c>
       <c r="T4" t="n">
-        <v>8710.813826837149</v>
+        <v>8710.81382683795</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
@@ -833,22 +833,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2.09338181500461</v>
+        <v>2.093381815004508</v>
       </c>
       <c r="E5" t="n">
-        <v>2.093516593905826</v>
+        <v>2.093516593905724</v>
       </c>
       <c r="F5" t="n">
-        <v>271652.008729051</v>
+        <v>271652.008729049</v>
       </c>
       <c r="G5" t="n">
-        <v>271618.7162290497</v>
+        <v>271618.7162290477</v>
       </c>
       <c r="H5" t="n">
-        <v>262087.1780600293</v>
+        <v>262087.1780600768</v>
       </c>
       <c r="I5" t="n">
-        <v>262072.5192892357</v>
+        <v>262072.5192892833</v>
       </c>
       <c r="J5" t="n">
         <v>200</v>
@@ -866,22 +866,22 @@
         <v>5</v>
       </c>
       <c r="O5" t="n">
-        <v>129767.0624546114</v>
+        <v>129767.0624546168</v>
       </c>
       <c r="P5" t="n">
-        <v>129742.8054880124</v>
+        <v>129742.8054880177</v>
       </c>
       <c r="Q5" t="n">
-        <v>129767.0624546114</v>
+        <v>129767.0624546168</v>
       </c>
       <c r="R5" t="n">
-        <v>129742.8054880124</v>
+        <v>129742.8054880177</v>
       </c>
       <c r="S5" t="n">
-        <v>3076.166397690124</v>
+        <v>3076.166397692113</v>
       </c>
       <c r="T5" t="n">
-        <v>3017.302180568966</v>
+        <v>3017.302180570991</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
@@ -919,22 +919,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1.199234652750926</v>
+        <v>1.199234652750929</v>
       </c>
       <c r="E6" t="n">
-        <v>1.200204170214929</v>
+        <v>1.200204170214932</v>
       </c>
       <c r="F6" t="n">
-        <v>203547.7422834506</v>
+        <v>203547.7422834505</v>
       </c>
       <c r="G6" t="n">
-        <v>203697.5025508511</v>
+        <v>203697.502550851</v>
       </c>
       <c r="H6" t="n">
-        <v>347528.113007205</v>
+        <v>347528.1130071729</v>
       </c>
       <c r="I6" t="n">
-        <v>347401.5452570362</v>
+        <v>347401.545257004</v>
       </c>
       <c r="J6" t="n">
         <v>200</v>
@@ -952,22 +952,22 @@
         <v>5</v>
       </c>
       <c r="O6" t="n">
-        <v>169731.3714347164</v>
+        <v>169731.371434716</v>
       </c>
       <c r="P6" t="n">
-        <v>169719.0424812252</v>
+        <v>169719.0424812247</v>
       </c>
       <c r="Q6" t="n">
-        <v>169731.3714347164</v>
+        <v>169731.371434716</v>
       </c>
       <c r="R6" t="n">
-        <v>169719.0424812252</v>
+        <v>169719.0424812247</v>
       </c>
       <c r="S6" t="n">
-        <v>5423.488224576235</v>
+        <v>5423.488224573</v>
       </c>
       <c r="T6" t="n">
-        <v>5568.872825819632</v>
+        <v>5568.872825816409</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
@@ -1005,22 +1005,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1.502842511404655</v>
+        <v>1.502842511405003</v>
       </c>
       <c r="E7" t="n">
-        <v>1.502167412405715</v>
+        <v>1.502167412406063</v>
       </c>
       <c r="F7" t="n">
-        <v>452191.2838810256</v>
+        <v>452191.283881026</v>
       </c>
       <c r="G7" t="n">
-        <v>452122.5283720616</v>
+        <v>452122.5283720619</v>
       </c>
       <c r="H7" t="n">
-        <v>600078.88888976</v>
+        <v>600078.8888896341</v>
       </c>
       <c r="I7" t="n">
-        <v>599704.0599147757</v>
+        <v>599704.0599146485</v>
       </c>
       <c r="J7" t="n">
         <v>200</v>
@@ -1038,22 +1038,22 @@
         <v>5</v>
       </c>
       <c r="O7" t="n">
-        <v>300890.6658212496</v>
+        <v>300890.6658211802</v>
       </c>
       <c r="P7" t="n">
-        <v>300980.1202170864</v>
+        <v>300980.1202170168</v>
       </c>
       <c r="Q7" t="n">
-        <v>300890.6658212496</v>
+        <v>300890.6658211802</v>
       </c>
       <c r="R7" t="n">
-        <v>300980.1202170864</v>
+        <v>300980.1202170168</v>
       </c>
       <c r="S7" t="n">
-        <v>3891.606261682224</v>
+        <v>3891.606261648461</v>
       </c>
       <c r="T7" t="n">
-        <v>3878.421110808589</v>
+        <v>3878.421110774754</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
@@ -1091,22 +1091,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.9391688424073077</v>
+        <v>0.9391688424073371</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9385104397291889</v>
+        <v>0.938510439729218</v>
       </c>
       <c r="F8" t="n">
-        <v>350526.6765265237</v>
+        <v>350526.6765265227</v>
       </c>
       <c r="G8" t="n">
-        <v>350212.0565708805</v>
+        <v>350212.0565708795</v>
       </c>
       <c r="H8" t="n">
-        <v>645400.4301863357</v>
+        <v>645400.4301862975</v>
       </c>
       <c r="I8" t="n">
-        <v>645991.0374571073</v>
+        <v>645991.0374570688</v>
       </c>
       <c r="J8" t="n">
         <v>200</v>
@@ -1124,22 +1124,22 @@
         <v>5</v>
       </c>
       <c r="O8" t="n">
-        <v>373230.7341330048</v>
+        <v>373230.734132992</v>
       </c>
       <c r="P8" t="n">
-        <v>373157.3371436717</v>
+        <v>373157.337143659</v>
       </c>
       <c r="Q8" t="n">
-        <v>373230.7341330048</v>
+        <v>373230.734132992</v>
       </c>
       <c r="R8" t="n">
-        <v>373157.3371436717</v>
+        <v>373157.337143659</v>
       </c>
       <c r="S8" t="n">
-        <v>-1187.882503568841</v>
+        <v>-1187.882503579991</v>
       </c>
       <c r="T8" t="n">
-        <v>-1071.842340310374</v>
+        <v>-1071.842340321478</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
@@ -1177,22 +1177,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1.399086518288731</v>
+        <v>1.399086518288756</v>
       </c>
       <c r="E9" t="n">
-        <v>1.400453303369271</v>
+        <v>1.400453303369296</v>
       </c>
       <c r="F9" t="n">
-        <v>3935931.766783873</v>
+        <v>3935931.766783885</v>
       </c>
       <c r="G9" t="n">
-        <v>3940016.475411831</v>
+        <v>3940016.475411843</v>
       </c>
       <c r="H9" t="n">
-        <v>5770053.56505069</v>
+        <v>5770053.565050554</v>
       </c>
       <c r="I9" t="n">
-        <v>5763112.37089413</v>
+        <v>5763112.370893992</v>
       </c>
       <c r="J9" t="n">
         <v>200</v>
@@ -1210,22 +1210,22 @@
         <v>5</v>
       </c>
       <c r="O9" t="n">
-        <v>2813215.419728325</v>
+        <v>2813215.419728283</v>
       </c>
       <c r="P9" t="n">
-        <v>2813386.541295429</v>
+        <v>2813386.541295387</v>
       </c>
       <c r="Q9" t="n">
-        <v>2813215.419728325</v>
+        <v>2813215.419728283</v>
       </c>
       <c r="R9" t="n">
-        <v>2813386.541295429</v>
+        <v>2813386.541295387</v>
       </c>
       <c r="S9" t="n">
-        <v>61186.66239568205</v>
+        <v>61186.66239566055</v>
       </c>
       <c r="T9" t="n">
-        <v>60713.03630596551</v>
+        <v>60713.03630594398</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
@@ -1263,22 +1263,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.18553418463143</v>
+        <v>0.1855341846314222</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1850224365429038</v>
+        <v>0.185022436542896</v>
       </c>
       <c r="F10" t="n">
-        <v>68860.64036704983</v>
+        <v>68860.64036704937</v>
       </c>
       <c r="G10" t="n">
-        <v>68760.36863352319</v>
+        <v>68760.36863352277</v>
       </c>
       <c r="H10" t="n">
-        <v>706096.1113829419</v>
+        <v>706096.1113830057</v>
       </c>
       <c r="I10" t="n">
-        <v>704640.9722161989</v>
+        <v>704640.9722162626</v>
       </c>
       <c r="J10" t="n">
         <v>200</v>
@@ -1296,22 +1296,22 @@
         <v>5</v>
       </c>
       <c r="O10" t="n">
-        <v>371147.9935831978</v>
+        <v>371147.9935832111</v>
       </c>
       <c r="P10" t="n">
-        <v>371632.5972043869</v>
+        <v>371632.5972044002</v>
       </c>
       <c r="Q10" t="n">
-        <v>371147.9935831978</v>
+        <v>371147.9935832111</v>
       </c>
       <c r="R10" t="n">
-        <v>371632.5972043869</v>
+        <v>371632.5972044002</v>
       </c>
       <c r="S10" t="n">
-        <v>-5015.71136746019</v>
+        <v>-5015.711367450343</v>
       </c>
       <c r="T10" t="n">
-        <v>-5142.618122105445</v>
+        <v>-5142.618122095614</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
